--- a/biology/Biochimie/Myomésine/Myomésine.xlsx
+++ b/biology/Biochimie/Myomésine/Myomésine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myom%C3%A9sine</t>
+          <t>Myomésine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La myomésine est une protéine qui relie entre eux les filaments de myosine et maintient les deux filaments groupés. Elle assure donc la cohésion du disque M. On la trouve principalement dans les disques M des sarcomères[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La myomésine est une protéine qui relie entre eux les filaments de myosine et maintient les deux filaments groupés. Elle assure donc la cohésion du disque M. On la trouve principalement dans les disques M des sarcomères.
 </t>
         </is>
       </c>
